--- a/Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
+++ b/Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.70860258220497</v>
+        <v>43.92906290311186</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2269894340711e-10</v>
+        <v>2.890182007122947e-10</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.581660177086218</v>
+        <v>39.39954279376722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03722293823392107</v>
+        <v>2.782902478484206e-09</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.64555017513498</v>
+        <v>69.24756647262839</v>
       </c>
       <c r="D4" t="n">
-        <v>9.052815754129513e-10</v>
+        <v>9.185060005097847e-16</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.97842046154581</v>
+        <v>69.31640220227568</v>
       </c>
       <c r="D5" t="n">
-        <v>6.37351585659294e-16</v>
+        <v>8.874308233184497e-16</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.81923475990955</v>
+        <v>65.64413811675797</v>
       </c>
       <c r="D6" t="n">
-        <v>6.901536775903369e-16</v>
+        <v>5.566170730918694e-15</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.35457116467828</v>
+        <v>72.74186843057566</v>
       </c>
       <c r="D7" t="n">
-        <v>3.902006127591008e-15</v>
+        <v>1.600677972993098e-16</v>
       </c>
     </row>
     <row r="8">
@@ -571,32 +571,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73.4794785696854</v>
+        <v>90.91410201385213</v>
       </c>
       <c r="D8" t="n">
-        <v>1.106965184661917e-16</v>
+        <v>1.812398041057647e-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92.45678170786096</v>
+        <v>7.910185404488575</v>
       </c>
       <c r="D9" t="n">
-        <v>8.380403795423334e-21</v>
+        <v>0.01915689258039081</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.04953810728265</v>
+        <v>32.61435455295586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0485690368170625</v>
+        <v>8.277189409485798e-08</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.310487494641959</v>
+        <v>33.15823844749082</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02585519458062661</v>
+        <v>6.306378113319813e-08</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34.52994337542548</v>
+        <v>33.93443569953045</v>
       </c>
       <c r="D12" t="n">
-        <v>3.176274776712328e-08</v>
+        <v>4.277902820031999e-08</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35.12041876004616</v>
+        <v>16.29422605973394</v>
       </c>
       <c r="D13" t="n">
-        <v>2.364274864985355e-08</v>
+        <v>0.0002895701343929133</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35.43116835292442</v>
+        <v>12.84538025869546</v>
       </c>
       <c r="D14" t="n">
-        <v>2.024042132153941e-08</v>
+        <v>0.001624280826699231</v>
       </c>
     </row>
     <row r="15">
@@ -697,50 +697,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.24938776540688</v>
+        <v>8.469607075832926</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002961353683415469</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>13.64772316056116</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.001087513283590059</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>8.068671261581926</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01769743383846177</v>
+        <v>0.01448265521089982</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
+++ b/Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.92906290311186</v>
+        <v>43.70860258220497</v>
       </c>
       <c r="D2" t="n">
-        <v>2.890182007122947e-10</v>
+        <v>3.2269894340711e-10</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.39954279376722</v>
+        <v>6.581660177086218</v>
       </c>
       <c r="D3" t="n">
-        <v>2.782902478484206e-09</v>
+        <v>0.03722293823392107</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69.24756647262839</v>
+        <v>41.64555017513498</v>
       </c>
       <c r="D4" t="n">
-        <v>9.185060005097847e-16</v>
+        <v>9.052815754129513e-10</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.31640220227568</v>
+        <v>69.97842046154581</v>
       </c>
       <c r="D5" t="n">
-        <v>8.874308233184497e-16</v>
+        <v>6.37351585659294e-16</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65.64413811675797</v>
+        <v>69.81923475990955</v>
       </c>
       <c r="D6" t="n">
-        <v>5.566170730918694e-15</v>
+        <v>6.901536775903369e-16</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.74186843057566</v>
+        <v>66.35457116467828</v>
       </c>
       <c r="D7" t="n">
-        <v>1.600677972993098e-16</v>
+        <v>3.902006127591008e-15</v>
       </c>
     </row>
     <row r="8">
@@ -571,32 +571,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90.91410201385213</v>
+        <v>73.4794785696854</v>
       </c>
       <c r="D8" t="n">
-        <v>1.812398041057647e-20</v>
+        <v>1.106965184661917e-16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.910185404488575</v>
+        <v>92.45678170786096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01915689258039081</v>
+        <v>8.380403795423334e-21</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.61435455295586</v>
+        <v>6.04953810728265</v>
       </c>
       <c r="D10" t="n">
-        <v>8.277189409485798e-08</v>
+        <v>0.0485690368170625</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.15823844749082</v>
+        <v>7.310487494641959</v>
       </c>
       <c r="D11" t="n">
-        <v>6.306378113319813e-08</v>
+        <v>0.02585519458062661</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.93443569953045</v>
+        <v>34.52994337542548</v>
       </c>
       <c r="D12" t="n">
-        <v>4.277902820031999e-08</v>
+        <v>3.176274776712328e-08</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16.29422605973394</v>
+        <v>35.12041876004616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002895701343929133</v>
+        <v>2.364274864985355e-08</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.84538025869546</v>
+        <v>35.43116835292442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001624280826699231</v>
+        <v>2.024042132153941e-08</v>
       </c>
     </row>
     <row r="15">
@@ -697,14 +697,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16.24938776540688</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0002961353683415469</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13.64772316056116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001087513283590059</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>8.469607075832926</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01448265521089982</v>
+      <c r="C17" t="n">
+        <v>8.068671261581926</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01769743383846177</v>
       </c>
     </row>
   </sheetData>
